--- a/не data/Назначение пинов v2.xlsx
+++ b/не data/Назначение пинов v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="249">
   <si>
     <t>GPIO</t>
   </si>
@@ -76,27 +76,12 @@
     <t>Ссылка</t>
   </si>
   <si>
-    <t>Блок питания 24В</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Конвертер напряжения 3.3В</t>
-  </si>
-  <si>
-    <t>Плата микроконтроллера ESP32 C3</t>
-  </si>
-  <si>
     <t>Твердотельное реле переменного тока 5А</t>
   </si>
   <si>
     <t>Твердотельное реле переменного тока 40А</t>
   </si>
   <si>
-    <t>Датчик атмосферного давления</t>
-  </si>
-  <si>
     <t>Соленоидный клапан трёхходовой 24В</t>
   </si>
   <si>
@@ -121,39 +106,18 @@
     <t>Латунный фитинг M прямой 1/8" - 4мм</t>
   </si>
   <si>
-    <t>Латунный фитинг M угловой 1/8" - 6мм</t>
-  </si>
-  <si>
     <t>Тройник латунный 8 - 6 - 8мм</t>
   </si>
   <si>
-    <t>Плата усилителя датчика взвешивания HX711</t>
-  </si>
-  <si>
     <t>Датчик взвешивания (тензорезистор) 750г</t>
   </si>
   <si>
-    <t>Светодиодный модуль 12В 3W</t>
-  </si>
-  <si>
     <t>https://aliexpress.ru/item/4001138356652.html?spm=a2g2w.orderdetail.0.0.bf194aa6UdW20j&amp;sku_id=10000014777180732</t>
   </si>
   <si>
-    <t>https://aliexpress.ru/item/1005005242048043.html?spm=a2g2w.orderdetail.0.0.799b4aa61Cb87U&amp;sku_id=12000032334715053</t>
-  </si>
-  <si>
-    <t>Светодиодный элемент филаментный 3В 80 мм</t>
-  </si>
-  <si>
-    <t>Аналоговая клавиатура 4 клавиши</t>
-  </si>
-  <si>
     <t>https://aliexpress.ru/item/33031708148.html?spm=a2g2w.orderdetail.0.0.19b44aa6GB09DM&amp;sku_id=67354065000</t>
   </si>
   <si>
-    <t>MOSFET-модуль изолированный</t>
-  </si>
-  <si>
     <t>https://aliexpress.ru/item/1005002626970800.html?spm=a2g2w.orderdetail.0.0.2eba4aa6hOStAD&amp;sku_id=12000021464531085</t>
   </si>
   <si>
@@ -172,21 +136,9 @@
     <t>Комплект регулируемых хомутов для шланга 5 шт 6 - 12 мм</t>
   </si>
   <si>
-    <t>Комплект одноразовых хомутов для шланга 10 шт 7 - 9 мм</t>
-  </si>
-  <si>
-    <t>https://aliexpress.ru/item/1005002834761774.html?spm=a2g2w.orderdetail.0.0.1ad44aa6qajbhM&amp;sku_id=12000022392664669</t>
-  </si>
-  <si>
     <t>Концевой выключатель</t>
   </si>
   <si>
-    <t>Сопротивление делителя напряжения 10 кОм</t>
-  </si>
-  <si>
-    <t>Тонкоплёночный термистор 10 кОм B 3435</t>
-  </si>
-  <si>
     <t>Силиконовая трубка пищевая 3 - 6 мм 1 м</t>
   </si>
   <si>
@@ -208,15 +160,6 @@
     <t>https://aliexpress.ru/item/1005003880321464.html?spm=a2g2w.orderdetail.0.0.5a4d4aa6VAjPhZ&amp;sku_id=12000027378388707</t>
   </si>
   <si>
-    <t>https://aliexpress.ru/item/32847956921.html?spm=a2g2w.orderdetail.0.0.3dd74aa6d7NDVn&amp;sku_id=65194306034</t>
-  </si>
-  <si>
-    <t>https://aliexpress.ru/item/1005005058710303.html?spm=a2g2w.detail.rcmdprod.0.4d5a22f83MGi5B&amp;mixer_rcmd_bucket_id=aerabtestalgoRecommendAbV10_controlRu2&amp;ru_algo_pv_id=e7c717-ea9d81-d8cd5f-252a09&amp;scenario=aerSimilarItemByContentRcmd&amp;sku_id=12000031483440061</t>
-  </si>
-  <si>
-    <t>https://aliexpress.ru/item/1005002711093706.html?sku_id=12000021812901915&amp;spm=a2g2w.productlist.search_results.1.20864aa63sFqcI</t>
-  </si>
-  <si>
     <t>https://aliexpress.ru/item/1005003207449474.html?spm=a2g2w.orderdetail.0.0.1ef94aa6nGadrO&amp;sku_id=12000024663683816</t>
   </si>
   <si>
@@ -229,9 +172,6 @@
     <t>https://aliexpress.ru/item/32955644293.html?spm=a2g2w.orderdetail.0.0.3bd54aa6xmdEgJ&amp;sku_id=66358407776</t>
   </si>
   <si>
-    <t>https://aliexpress.ru/item/32909822108.html?spm=a2g2w.orderdetail.0.0.7b864aa6eOSMfK&amp;sku_id=65907929150</t>
-  </si>
-  <si>
     <t>https://aliexpress.ru/item/32898929226.html?spm=a2g2w.orderdetail.0.0.78fc4aa6P2Peb6&amp;sku_id=12000023715679783</t>
   </si>
   <si>
@@ -244,9 +184,6 @@
     <t>https://aliexpress.ru/item/32844571597.html?spm=a2g2w.orderdetail.0.0.52ee4aa6nnC9lO&amp;sku_id=12000021817883266</t>
   </si>
   <si>
-    <t>Конденсатор для фильтрации помех аналогового входа</t>
-  </si>
-  <si>
     <t>Analog Function</t>
   </si>
   <si>
@@ -631,9 +568,6 @@
     <t>VCC</t>
   </si>
   <si>
-    <t>CS термопары бойлера MAX13855</t>
-  </si>
-  <si>
     <t>CS термистора пара PT100 MAX13865</t>
   </si>
   <si>
@@ -733,20 +667,113 @@
     <t>NTC-термистор</t>
   </si>
   <si>
-    <t>CS термопары группы MAX13855</t>
-  </si>
-  <si>
     <t xml:space="preserve">жёлтый средний с белой и чёрной метками </t>
   </si>
   <si>
     <t>Сигнал готовности PT100</t>
+  </si>
+  <si>
+    <t>https://aliexpress.ru/item/1005002568593455.html?spm=a2g2w.detail.pers_rcmd.5.2f16712bOnw0j7&amp;mixer_rcmd_bucket_id=aerabtestalgoRecommendAbV2_controlRu1&amp;pdp_trigger_item_id=0_1005006076665043&amp;ru_algo_pv_id=e7c717-476f2e-bd2a91-501c2f-1722967200&amp;scenario=pcDetailBottomMoreOtherSeller&amp;sku_id=12000021194369726&amp;traffic_source=recommendation&amp;type_rcmd=core</t>
+  </si>
+  <si>
+    <t>Блок питания 24В для питания клапана и подсветки</t>
+  </si>
+  <si>
+    <t>Плата микроконтроллера ESP32S2 Mini</t>
+  </si>
+  <si>
+    <t>https://aliexpress.ru/item/1005004609106349.html?spm=a2g2w.orderdetail.0.0.722a4aa6TGXrBc&amp;sku_id=12000033128298270</t>
+  </si>
+  <si>
+    <t>https://aliexpress.ru/item/1006278719.html?spm=a2g2w.detail.similar_rcmd.2.40faa070CDSkZG&amp;mixer_rcmd_bucket_id=aerabtestalgoRecommendAbV2_controlRu1&amp;pdp_trigger_item_id=0_1038403831&amp;ru_algo_pv_id=e7c717-61b690-c660a9-4809ca-1722967200&amp;scenario=aerSimilarItemPdpRcmd&amp;sku_id=55073942028&amp;traffic_source=recommendation&amp;type_rcmd=core</t>
+  </si>
+  <si>
+    <t>Модуль ввода аналогового сигнала для NTC-термистора</t>
+  </si>
+  <si>
+    <t>Тонкоплёночный NTC-термистор 10 кОм B3435</t>
+  </si>
+  <si>
+    <t>Конвертер напряжения 3.3В для питания остальных устройств</t>
+  </si>
+  <si>
+    <t>Аналоговая клавиатура 4 клавиши (аппаратный сброс)</t>
+  </si>
+  <si>
+    <t>Светодиодный модуль 12В 3W (танкер и рабочая зона)</t>
+  </si>
+  <si>
+    <t>MOSFET-модуль (клапан и две подсветки)</t>
+  </si>
+  <si>
+    <t>Латунный фитинг F угловой 1/8" - 6мм</t>
+  </si>
+  <si>
+    <t>Плата AD-преобразователя и усилителя датчика взвешивания HX711</t>
+  </si>
+  <si>
+    <t>Модуль лазерного дальномера VL6180X</t>
+  </si>
+  <si>
+    <t>https://aliexpress.ru/item/1005001572022389.html?spm=a2g2w.orderdetail.0.0.54ac4aa6IolDjX&amp;sku_id=12000016634417892</t>
+  </si>
+  <si>
+    <t>https://aliexpress.ru/item/1005004516254556.html?spm=a2g2w.orderdetail.0.0.32a34aa6dttSb3</t>
+  </si>
+  <si>
+    <t>Модуль MAX6675 с термопарой K-типа</t>
+  </si>
+  <si>
+    <t>https://aliexpress.ru/item/1843127061.html?sku_id=65665652555&amp;spm=a2g2w.productlist.search_results.0.3a994da6zl0NtW</t>
+  </si>
+  <si>
+    <t>Термопара K-типа с концевиком М4</t>
+  </si>
+  <si>
+    <t>Модуль MAX6675</t>
+  </si>
+  <si>
+    <t>https://aliexpress.ru/item/1005005980085656.html?sku_id=12000036724582194&amp;spm=a2g2w.productlist.search_results.3.3a994da6XIlG4i</t>
+  </si>
+  <si>
+    <t>https://aliexpress.ru/item/1005005004812425.html?spm=a2g2w.orderdetail.0.0.7a154aa6HC4IN1&amp;sku_id=12000031315511876</t>
+  </si>
+  <si>
+    <t>Удлинительный кабель 0,5 м USB C Type-C 3,1 штекер-гнездо</t>
+  </si>
+  <si>
+    <t>https://aliexpress.ru/item/1005006184411443.html?spm=a2g2w.orderdetail.0.0.5aa34aa6hi4eDB&amp;sku_id=12000036177278561</t>
+  </si>
+  <si>
+    <t>https://aliexpress.ru/item/1005003439708042.html?spm=a2g2w.orderdetail.0.0.30934aa6SAtzsk&amp;sku_id=12000025799728311</t>
+  </si>
+  <si>
+    <t>3X40P штырьковый разъем 90 градусов</t>
+  </si>
+  <si>
+    <t>https://aliexpress.ru/item/1005005381259648.html?spm=a2g2w.orderdetail.0.0.48914aa6W5tq46&amp;sku_id=12000032823541735</t>
+  </si>
+  <si>
+    <t>Микросхема MC14490PG для аппаратного подавления дребезга</t>
+  </si>
+  <si>
+    <t>https://aliexpress.ru/item/4000454460472.html?sku_id=10000001855924183&amp;spm=a2g2w.productlist.search_results.0.62196cd7DAdjNG</t>
+  </si>
+  <si>
+    <t>CS термопары группы MAX6675</t>
+  </si>
+  <si>
+    <t>CS термопары бойлера MAX6675</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="000000"/>
+  </numFmts>
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -849,6 +876,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -934,7 +969,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1044,6 +1079,27 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1055,6 +1111,1265 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1752600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>713682</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4781550" y="12039600"/>
+          <a:ext cx="1600200" cy="694632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1695450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1085991</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876801" y="752476"/>
+          <a:ext cx="1447799" cy="1047890"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1504950</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1033571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Рисунок 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4962525" y="1933576"/>
+          <a:ext cx="1171575" cy="938320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1841413</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1162050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Рисунок 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4667251" y="4876801"/>
+          <a:ext cx="1803312" cy="1142999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1504950</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1311333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Рисунок 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4962525" y="6124575"/>
+          <a:ext cx="1171575" cy="1292283"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1733550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1859382</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Рисунок 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4752976" y="8772526"/>
+          <a:ext cx="1609724" cy="1840331"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1543050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1223225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Рисунок 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4933950" y="10753726"/>
+          <a:ext cx="1238250" cy="1185124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1562100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1147364</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Рисунок 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5000625" y="12811126"/>
+          <a:ext cx="1190625" cy="1118788"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1466850</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>978694</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Рисунок 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5095875" y="14001750"/>
+          <a:ext cx="1000125" cy="950119"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1495425</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>919535</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Рисунок 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5067301" y="15020926"/>
+          <a:ext cx="1057274" cy="900484"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1619250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>983245</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Рисунок 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4943475" y="15992475"/>
+          <a:ext cx="1304925" cy="964195"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1714500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1071463</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Рисунок 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4848226" y="17021175"/>
+          <a:ext cx="1495424" cy="1052413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1809750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1333061</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Рисунок 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4695825" y="18135600"/>
+          <a:ext cx="1743075" cy="1314011"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1514476</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1149570</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Рисунок 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5238751" y="19497676"/>
+          <a:ext cx="1066800" cy="1149569"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342902</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1571625</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1000372</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Рисунок 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5133977" y="20688302"/>
+          <a:ext cx="1228723" cy="981320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1695450</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1206938</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Рисунок 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5010150" y="21745575"/>
+          <a:ext cx="1476375" cy="1187888"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1666876</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>774890</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Рисунок 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5143501" y="29136975"/>
+          <a:ext cx="1314450" cy="736790"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1485900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>877099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Рисунок 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5229225" y="22974301"/>
+          <a:ext cx="1047750" cy="877098"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1457325</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1009243</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Рисунок 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5229226" y="23888700"/>
+          <a:ext cx="1019174" cy="1009243"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1581150</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>941249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Рисунок 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5162550" y="24945975"/>
+          <a:ext cx="1209675" cy="922199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1733550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1141146</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Рисунок 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4933950" y="25917525"/>
+          <a:ext cx="1590675" cy="1131621"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1790701</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>525164</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Рисунок 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4867276" y="27098625"/>
+          <a:ext cx="1714500" cy="515639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1590675</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>826814</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Рисунок 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5153025" y="29946600"/>
+          <a:ext cx="1228725" cy="798239"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1718005</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1285875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Рисунок 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4943475" y="2962275"/>
+          <a:ext cx="1565605" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1847851</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>829310</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Рисунок 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4810126" y="6867526"/>
+          <a:ext cx="1828800" cy="810259"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1838325</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1200997</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Рисунок 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4819650" y="26650950"/>
+          <a:ext cx="1809750" cy="1191472"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1771650</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1171045</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Рисунок 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4933950" y="27898725"/>
+          <a:ext cx="1628775" cy="1171045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1733551</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1098782</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Рисунок 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4905376" y="33508951"/>
+          <a:ext cx="1619250" cy="1070206"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1609725</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1012693</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Рисунок 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5076826" y="30803851"/>
+          <a:ext cx="1323974" cy="993642"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1819275</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>765307</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Рисунок 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4829175" y="31870651"/>
+          <a:ext cx="1781175" cy="727206"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1428750</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>817264</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Рисунок 37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5257800" y="32632651"/>
+          <a:ext cx="962025" cy="807738"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1838325</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1592428</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Рисунок 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4810125" y="34613851"/>
+          <a:ext cx="1819275" cy="1582902"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1428751</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>870961</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Рисунок 39"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5324476" y="36242626"/>
+          <a:ext cx="895350" cy="851910"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1384,716 +2699,779 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F33"/>
+  <dimension ref="A2:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="55.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="37.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="37.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
-      <c r="B2" t="s">
+    <row r="2" spans="1:7" ht="26.25">
+      <c r="B2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2">
-        <f>SUM(E4:E45)</f>
-        <v>3473</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="C2" s="45"/>
+      <c r="E2" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="52">
+        <f>SUM(F4:F45)</f>
+        <v>4741</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" s="46" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <f>C4*D4</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
+    <row r="4" spans="1:7" s="47" customFormat="1" ht="88.5" customHeight="1">
+      <c r="A4" s="51">
+        <v>1</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" s="48"/>
+      <c r="D4" s="51">
+        <v>1</v>
+      </c>
+      <c r="E4" s="51">
+        <v>448</v>
+      </c>
+      <c r="F4" s="51">
+        <f>D4*E4</f>
+        <v>448</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="47" customFormat="1" ht="87" customHeight="1">
+      <c r="A5" s="51">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" s="51">
+        <v>1</v>
+      </c>
+      <c r="E5" s="51">
+        <v>39</v>
+      </c>
+      <c r="F5" s="51">
+        <f t="shared" ref="F5:F36" si="0">D5*E5</f>
+        <v>39</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="47" customFormat="1" ht="104.25" customHeight="1">
+      <c r="A6" s="51">
+        <v>3</v>
+      </c>
+      <c r="B6" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>39</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ref="E5:E33" si="0">C5*D5</f>
-        <v>39</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="D6" s="51">
+        <v>1</v>
+      </c>
+      <c r="E6" s="51">
         <v>350</v>
       </c>
-      <c r="E6">
+      <c r="F6" s="51">
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
+      <c r="G6" s="50" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="47" customFormat="1" ht="98.25" customHeight="1">
+      <c r="A7" s="51">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>142</v>
-      </c>
-      <c r="E7">
+      <c r="B7" s="47" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" s="51">
+        <v>1</v>
+      </c>
+      <c r="E7" s="51">
+        <v>157</v>
+      </c>
+      <c r="F7" s="51">
         <f t="shared" si="0"/>
-        <v>142</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
+        <v>157</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="47" customFormat="1" ht="105" customHeight="1">
+      <c r="A8" s="51">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
+      <c r="B8" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="D8" s="51">
+        <v>1</v>
+      </c>
+      <c r="E8" s="51">
         <v>16</v>
       </c>
-      <c r="E8">
+      <c r="F8" s="51">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
+        <v>16</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="47" customFormat="1" ht="69" customHeight="1">
+      <c r="A9" s="51">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="B9" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="51">
+        <v>1</v>
+      </c>
+      <c r="E9" s="51">
         <v>51</v>
       </c>
-      <c r="E9">
+      <c r="F9" s="51">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
+      <c r="G9" s="50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="47" customFormat="1" ht="154.5" customHeight="1">
+      <c r="A10" s="51">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="B10" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="51">
+        <v>1</v>
+      </c>
+      <c r="E10" s="51">
         <v>290</v>
       </c>
-      <c r="E10">
+      <c r="F10" s="51">
         <f t="shared" si="0"/>
         <v>290</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
+      <c r="G10" s="50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="47" customFormat="1" ht="102.75" customHeight="1">
+      <c r="A11" s="51">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
+      <c r="D11" s="51">
+        <v>1</v>
+      </c>
+      <c r="E11" s="51">
         <v>257</v>
       </c>
-      <c r="E11">
+      <c r="F11" s="51">
         <f t="shared" si="0"/>
         <v>257</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
+      <c r="G11" s="50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="47" customFormat="1" ht="60" customHeight="1">
+      <c r="A12" s="51">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>80</v>
-      </c>
-      <c r="E12">
+      <c r="B12" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="D12" s="51">
+        <v>1</v>
+      </c>
+      <c r="E12" s="51">
+        <v>38</v>
+      </c>
+      <c r="F12" s="51">
         <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
+        <v>38</v>
+      </c>
+      <c r="G12" s="49" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="47" customFormat="1" ht="93.75" customHeight="1">
+      <c r="A13" s="51">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
+      <c r="B13" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="51">
+        <v>1</v>
+      </c>
+      <c r="E13" s="51">
         <v>46</v>
       </c>
-      <c r="E13">
+      <c r="F13" s="51">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
+      <c r="G13" s="50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="47" customFormat="1" ht="81" customHeight="1">
+      <c r="A14" s="51">
         <v>11</v>
       </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
+      <c r="B14" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="51">
+        <v>1</v>
+      </c>
+      <c r="E14" s="51">
         <v>40</v>
       </c>
-      <c r="E14">
+      <c r="F14" s="51">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
+      <c r="G14" s="50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="47" customFormat="1" ht="76.5" customHeight="1">
+      <c r="A15" s="51">
         <v>12</v>
       </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
+      <c r="B15" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="D15" s="51">
+        <v>1</v>
+      </c>
+      <c r="E15" s="51">
         <v>63</v>
       </c>
-      <c r="E15">
+      <c r="F15" s="51">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
+      <c r="G15" s="50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="47" customFormat="1" ht="81" customHeight="1">
+      <c r="A16" s="51">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
+      <c r="B16" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="51">
+        <v>1</v>
+      </c>
+      <c r="E16" s="51">
         <v>61</v>
       </c>
-      <c r="E16">
+      <c r="F16" s="51">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
+      <c r="G16" s="50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="47" customFormat="1" ht="87.75" customHeight="1">
+      <c r="A17" s="51">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
+      <c r="B17" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="51">
+        <v>1</v>
+      </c>
+      <c r="E17" s="51">
         <v>601</v>
       </c>
-      <c r="E17">
+      <c r="F17" s="51">
         <f t="shared" si="0"/>
         <v>601</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
+      <c r="G17" s="50" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="47" customFormat="1" ht="108.75" customHeight="1">
+      <c r="A18" s="51">
         <v>15</v>
       </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
+      <c r="B18" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="D18" s="51">
+        <v>1</v>
+      </c>
+      <c r="E18" s="51">
         <v>56</v>
       </c>
-      <c r="E18">
+      <c r="F18" s="51">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
+      <c r="G18" s="50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="47" customFormat="1" ht="92.25" customHeight="1">
+      <c r="A19" s="51">
         <v>16</v>
       </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
+      <c r="B19" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="51">
+        <v>1</v>
+      </c>
+      <c r="E19" s="51">
         <v>260</v>
       </c>
-      <c r="E19">
+      <c r="F19" s="51">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
+      <c r="G19" s="50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="47" customFormat="1" ht="83.25" customHeight="1">
+      <c r="A20" s="51">
         <v>17</v>
       </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
+      <c r="B20" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="D20" s="51">
+        <v>4</v>
+      </c>
+      <c r="E20" s="51">
         <v>41</v>
       </c>
-      <c r="E20">
+      <c r="F20" s="51">
         <f t="shared" si="0"/>
-        <v>82</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
+        <v>164</v>
+      </c>
+      <c r="G20" s="50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="47" customFormat="1" ht="98.25" customHeight="1">
+      <c r="A21" s="51">
         <v>18</v>
       </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>77</v>
-      </c>
-      <c r="E21">
+      <c r="B21" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="D21" s="51">
+        <v>1</v>
+      </c>
+      <c r="E21" s="51">
+        <v>121</v>
+      </c>
+      <c r="F21" s="51">
         <f t="shared" si="0"/>
-        <v>154</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
+        <v>121</v>
+      </c>
+      <c r="G21" s="50" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="47" customFormat="1" ht="72" customHeight="1">
+      <c r="A22" s="51">
         <v>19</v>
       </c>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
+      <c r="B22" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="D22" s="51">
+        <v>1</v>
+      </c>
+      <c r="E22" s="51">
         <v>52</v>
       </c>
-      <c r="E22">
+      <c r="F22" s="51">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23">
+      <c r="G22" s="50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="47" customFormat="1" ht="81.75" customHeight="1">
+      <c r="A23" s="51">
         <v>20</v>
       </c>
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23">
+      <c r="B23" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="D23" s="51">
+        <v>3</v>
+      </c>
+      <c r="E23" s="51">
         <v>38</v>
       </c>
-      <c r="E23">
+      <c r="F23" s="51">
         <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
+        <v>114</v>
+      </c>
+      <c r="G23" s="50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="47" customFormat="1" ht="77.25" customHeight="1">
+      <c r="A24" s="51">
         <v>21</v>
       </c>
-      <c r="B24" t="s">
-        <v>184</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
+      <c r="B24" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" s="51">
+        <v>1</v>
+      </c>
+      <c r="E24" s="51">
         <v>53</v>
       </c>
-      <c r="E24">
+      <c r="F24" s="51">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25">
+      <c r="G24" s="50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="47" customFormat="1" ht="93" customHeight="1">
+      <c r="A25" s="51">
         <v>22</v>
       </c>
-      <c r="B25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
+      <c r="B25" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="51">
+        <v>1</v>
+      </c>
+      <c r="E25" s="51">
         <v>109</v>
       </c>
-      <c r="E25">
+      <c r="F25" s="51">
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26">
+      <c r="G25" s="50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="47" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A26" s="51">
         <v>23</v>
       </c>
-      <c r="B26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26">
+      <c r="B26" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="51">
         <v>2</v>
       </c>
-      <c r="D26">
+      <c r="E26" s="51">
         <v>81</v>
       </c>
-      <c r="E26">
+      <c r="F26" s="51">
         <f t="shared" si="0"/>
         <v>162</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
+      <c r="G26" s="50" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="47" customFormat="1" ht="99" customHeight="1">
+      <c r="A27" s="51">
         <v>24</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="D27" s="51">
+        <v>1</v>
+      </c>
+      <c r="E27" s="51">
+        <v>140</v>
+      </c>
+      <c r="F27" s="51">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="G27" s="50" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="47" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A28" s="51">
+        <v>25</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="D28" s="51">
+        <v>1</v>
+      </c>
+      <c r="E28" s="51">
+        <v>143</v>
+      </c>
+      <c r="F28" s="51">
+        <f t="shared" si="0"/>
+        <v>143</v>
+      </c>
+      <c r="G28" s="50" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="64.5" customHeight="1">
+      <c r="A29" s="14">
+        <v>26</v>
+      </c>
+      <c r="B29" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="D29" s="14">
+        <v>1</v>
+      </c>
+      <c r="E29" s="14">
+        <v>99</v>
+      </c>
+      <c r="F29" s="14">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="G29" s="50" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="47" customFormat="1" ht="68.25" customHeight="1">
+      <c r="A30" s="51">
+        <v>27</v>
+      </c>
+      <c r="B30" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="51">
+        <v>1</v>
+      </c>
+      <c r="E30" s="51">
         <v>51</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>132</v>
-      </c>
-      <c r="E27">
+      <c r="F30" s="51">
         <f t="shared" si="0"/>
-        <v>132</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29">
-        <v>26</v>
-      </c>
-      <c r="B29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30">
-        <v>27</v>
-      </c>
-      <c r="B30" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31">
+        <v>51</v>
+      </c>
+      <c r="G30" s="50" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="47" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A31" s="51">
         <v>28</v>
       </c>
-      <c r="B31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
+      <c r="B31" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="51">
+        <v>1</v>
+      </c>
+      <c r="E31" s="51">
         <v>102</v>
       </c>
-      <c r="E31">
+      <c r="F31" s="51">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32">
+      <c r="G31" s="50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="47" customFormat="1" ht="62.25" customHeight="1">
+      <c r="A32" s="51">
         <v>29</v>
       </c>
-      <c r="B32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
+      <c r="B32" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="51">
+        <v>1</v>
+      </c>
+      <c r="E32" s="51">
         <v>28</v>
       </c>
-      <c r="E32">
+      <c r="F32" s="51">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33">
+      <c r="G32" s="50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="47" customFormat="1" ht="67.5" customHeight="1">
+      <c r="A33" s="51">
         <v>30</v>
       </c>
-      <c r="B33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
+      <c r="B33" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="51">
+        <v>1</v>
+      </c>
+      <c r="E33" s="51">
         <v>75</v>
       </c>
-      <c r="E33">
+      <c r="F33" s="51">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>60</v>
+      <c r="G33" s="50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="47" customFormat="1" ht="88.5" customHeight="1">
+      <c r="A34" s="51">
+        <v>31</v>
+      </c>
+      <c r="B34" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="D34" s="51">
+        <v>1</v>
+      </c>
+      <c r="E34" s="51">
+        <v>222</v>
+      </c>
+      <c r="F34" s="51">
+        <f t="shared" si="0"/>
+        <v>222</v>
+      </c>
+      <c r="G34" s="50" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="47" customFormat="1" ht="127.5" customHeight="1">
+      <c r="A35" s="51">
+        <v>32</v>
+      </c>
+      <c r="B35" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="D35" s="51">
+        <v>1</v>
+      </c>
+      <c r="E35" s="51">
+        <v>176</v>
+      </c>
+      <c r="F35" s="51">
+        <f t="shared" si="0"/>
+        <v>176</v>
+      </c>
+      <c r="G35" s="50" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="47" customFormat="1" ht="70.5" customHeight="1">
+      <c r="A36" s="51">
+        <v>33</v>
+      </c>
+      <c r="B36" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="D36" s="51">
+        <v>1</v>
+      </c>
+      <c r="E36" s="51">
+        <v>157</v>
+      </c>
+      <c r="F36" s="51">
+        <f t="shared" si="0"/>
+        <v>157</v>
+      </c>
+      <c r="G36" s="50" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F17" r:id="rId1"/>
-    <hyperlink ref="F18" r:id="rId2"/>
-    <hyperlink ref="F19" r:id="rId3"/>
-    <hyperlink ref="F20" r:id="rId4"/>
-    <hyperlink ref="F21" r:id="rId5"/>
-    <hyperlink ref="F22" r:id="rId6"/>
-    <hyperlink ref="F23" r:id="rId7"/>
-    <hyperlink ref="F25" r:id="rId8"/>
-    <hyperlink ref="F24" r:id="rId9"/>
-    <hyperlink ref="F26" r:id="rId10"/>
-    <hyperlink ref="F27" r:id="rId11"/>
-    <hyperlink ref="F31" r:id="rId12"/>
-    <hyperlink ref="F33" r:id="rId13"/>
-    <hyperlink ref="F32" r:id="rId14"/>
-    <hyperlink ref="F5" r:id="rId15"/>
-    <hyperlink ref="F7" r:id="rId16"/>
-    <hyperlink ref="F6" r:id="rId17"/>
-    <hyperlink ref="F4" r:id="rId18"/>
-    <hyperlink ref="F8" r:id="rId19"/>
-    <hyperlink ref="F9" r:id="rId20"/>
-    <hyperlink ref="F10" r:id="rId21"/>
-    <hyperlink ref="F11" r:id="rId22"/>
-    <hyperlink ref="F12" r:id="rId23"/>
-    <hyperlink ref="F14" r:id="rId24"/>
-    <hyperlink ref="F15" r:id="rId25"/>
-    <hyperlink ref="F16" r:id="rId26"/>
-    <hyperlink ref="F13" r:id="rId27"/>
+    <hyperlink ref="G17" r:id="rId1"/>
+    <hyperlink ref="G18" r:id="rId2"/>
+    <hyperlink ref="G19" r:id="rId3"/>
+    <hyperlink ref="G20" r:id="rId4"/>
+    <hyperlink ref="G22" r:id="rId5"/>
+    <hyperlink ref="G23" r:id="rId6"/>
+    <hyperlink ref="G25" r:id="rId7"/>
+    <hyperlink ref="G24" r:id="rId8"/>
+    <hyperlink ref="G26" r:id="rId9"/>
+    <hyperlink ref="G31" r:id="rId10"/>
+    <hyperlink ref="G33" r:id="rId11"/>
+    <hyperlink ref="G32" r:id="rId12"/>
+    <hyperlink ref="G5" r:id="rId13"/>
+    <hyperlink ref="G8" r:id="rId14"/>
+    <hyperlink ref="G9" r:id="rId15"/>
+    <hyperlink ref="G10" r:id="rId16"/>
+    <hyperlink ref="G11" r:id="rId17"/>
+    <hyperlink ref="G14" r:id="rId18"/>
+    <hyperlink ref="G15" r:id="rId19"/>
+    <hyperlink ref="G16" r:id="rId20"/>
+    <hyperlink ref="G13" r:id="rId21"/>
+    <hyperlink ref="G4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId22"/>
+  <drawing r:id="rId23"/>
 </worksheet>
 </file>
 
@@ -2102,7 +3480,7 @@
   <dimension ref="A7:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2123,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>10</v>
@@ -2135,13 +3513,13 @@
         <v>1</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>9</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="U7" s="16"/>
     </row>
@@ -2150,16 +3528,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="F8" s="13">
         <v>1</v>
@@ -2175,16 +3553,16 @@
         <v>34</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="H9" s="39"/>
       <c r="U9" s="4"/>
@@ -2194,16 +3572,16 @@
         <v>33</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
@@ -2215,16 +3593,16 @@
         <v>18</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>204</v>
+        <v>248</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
@@ -2236,16 +3614,16 @@
         <v>35</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>3</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="H12" s="39"/>
       <c r="U12" s="4"/>
@@ -2255,16 +3633,16 @@
         <v>36</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
@@ -2276,14 +3654,14 @@
         <v>37</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="24" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
@@ -2295,12 +3673,12 @@
         <v>15</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="23"/>
       <c r="E15" s="24" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
@@ -2312,10 +3690,10 @@
         <v>38</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="3" t="s">
@@ -2335,14 +3713,14 @@
         <v>8</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="D17" s="33"/>
       <c r="E17" s="34" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="F17" s="13">
         <v>1</v>
@@ -2358,14 +3736,14 @@
         <v>9</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="D18" s="33"/>
       <c r="E18" s="34" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
@@ -2377,16 +3755,16 @@
         <v>21</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13">
@@ -2400,16 +3778,16 @@
         <v>6</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13">
@@ -2423,16 +3801,16 @@
         <v>10</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>3</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="F21" s="13">
         <v>1</v>
@@ -2448,10 +3826,10 @@
         <v>11</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>3</v>
@@ -2472,16 +3850,16 @@
         <v>14</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="F23" s="13">
         <v>1</v>
@@ -2497,10 +3875,10 @@
         <v>13</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="D24" s="30"/>
       <c r="E24" s="31" t="s">
@@ -2520,10 +3898,10 @@
         <v>12</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="D25" s="37" t="s">
         <v>3</v>
@@ -2541,16 +3919,16 @@
         <v>5</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="C26" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>3</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="F26" s="13">
         <v>1</v>
@@ -2566,14 +3944,14 @@
         <v>2</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="D27" s="36"/>
       <c r="E27" s="28" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="F27" s="13">
         <v>1</v>
@@ -2588,14 +3966,14 @@
         <v>3</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="D28" s="36"/>
       <c r="E28" s="28" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
@@ -2606,14 +3984,14 @@
         <v>4</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="D29" s="36"/>
       <c r="E29" s="28" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
@@ -2624,13 +4002,13 @@
         <v>0</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="C30" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="13">
@@ -2643,7 +4021,7 @@
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="F31" s="13">
         <f>SUM(F8:F30)</f>
@@ -2657,7 +4035,7 @@
         <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="13">
@@ -2668,12 +4046,12 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="3" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="3" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2686,7 +4064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -2701,15 +4079,15 @@
   <sheetData>
     <row r="1" spans="2:7">
       <c r="B1" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="2:7" ht="15.75" thickBot="1">
       <c r="G2" s="1" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="18" thickBot="1">
@@ -2717,387 +4095,387 @@
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="35.25" thickBot="1">
       <c r="B4" s="8" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="18" thickBot="1">
       <c r="B5" s="7" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E5" s="6"/>
       <c r="G5" s="11" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="18" thickBot="1">
       <c r="B6" s="7" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="E6" s="6"/>
       <c r="G6" s="11" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="18" thickBot="1">
       <c r="B7" s="7" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="E7" s="6"/>
       <c r="G7" s="11" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="18" thickBot="1">
       <c r="B8" s="7" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="E8" s="6"/>
       <c r="G8" s="12" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="35.25" thickBot="1">
       <c r="B9" s="7" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="E9" s="6"/>
       <c r="G9" s="12" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="18" thickBot="1">
       <c r="B10" s="7" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="E10" s="6"/>
       <c r="G10" s="12" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="18" thickBot="1">
       <c r="B11" s="7" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="E11" s="6"/>
       <c r="G11" s="12" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="18" thickBot="1">
       <c r="B12" s="7" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="E12" s="6"/>
       <c r="G12" s="12" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="35.25" thickBot="1">
       <c r="B13" s="7" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="E13" s="6"/>
       <c r="G13" s="12" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="18" thickBot="1">
       <c r="B14" s="7" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="2:7" ht="18" thickBot="1">
       <c r="B15" s="7" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="2:7" ht="18" thickBot="1">
       <c r="B16" s="7" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="2:5" ht="18" thickBot="1">
       <c r="B17" s="7" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="2:5" ht="18" thickBot="1">
       <c r="B18" s="7" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="2:5" ht="18" thickBot="1">
       <c r="B19" s="7" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="2:5" ht="18" thickBot="1">
       <c r="B20" s="7" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="2:5" ht="18" thickBot="1">
       <c r="B21" s="7" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E21" s="6"/>
     </row>
     <row r="22" spans="2:5" ht="18" thickBot="1">
       <c r="B22" s="7" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="2:5" ht="18" thickBot="1">
       <c r="B23" s="7" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="18" thickBot="1">
       <c r="B24" s="7" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="18" thickBot="1">
       <c r="B25" s="7" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="2:5" ht="18" thickBot="1">
       <c r="B26" s="8" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="18" thickBot="1">
       <c r="B27" s="8" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1">
       <c r="B28" s="8" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="18" thickBot="1">
       <c r="B29" s="8" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="18" thickBot="1">
       <c r="B30" s="8" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="18" thickBot="1">
       <c r="B31" s="8" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="18" thickBot="1">
       <c r="B32" s="8" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="18" thickBot="1">
       <c r="B33" s="7" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -3105,7 +4483,7 @@
     </row>
     <row r="34" spans="2:5" ht="18" thickBot="1">
       <c r="B34" s="7" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -3113,7 +4491,7 @@
     </row>
     <row r="35" spans="2:5" ht="18" thickBot="1">
       <c r="B35" s="7" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -3121,7 +4499,7 @@
     </row>
     <row r="36" spans="2:5" ht="18" thickBot="1">
       <c r="B36" s="7" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -3129,7 +4507,7 @@
     </row>
     <row r="37" spans="2:5" ht="18" thickBot="1">
       <c r="B37" s="7" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -3137,7 +4515,7 @@
     </row>
     <row r="38" spans="2:5" ht="18" thickBot="1">
       <c r="B38" s="7" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -3145,47 +4523,47 @@
     </row>
     <row r="39" spans="2:5" ht="18" thickBot="1">
       <c r="B39" s="9" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="18" thickBot="1">
       <c r="B40" s="9" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="18" thickBot="1">
       <c r="B41" s="9" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="18" thickBot="1">
       <c r="B42" s="9" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="18" thickBot="1">
       <c r="B43" s="7" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -3193,7 +4571,7 @@
     </row>
     <row r="44" spans="2:5" ht="18" thickBot="1">
       <c r="B44" s="7" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -3201,22 +4579,22 @@
     </row>
     <row r="45" spans="2:5" ht="18" thickBot="1">
       <c r="B45" s="8" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="18" thickBot="1">
       <c r="B46" s="8" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -3249,7 +4627,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="3:4">
@@ -3257,7 +4635,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="3:4">
@@ -3265,7 +4643,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="3:4">
@@ -3273,7 +4651,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="3:4">
@@ -3281,7 +4659,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="3:4">
@@ -3289,7 +4667,7 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="3:4">
@@ -3297,7 +4675,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="3:4">
@@ -3305,7 +4683,7 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="3:4">
@@ -3313,7 +4691,7 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="3:4">
@@ -3321,7 +4699,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="3:4">
@@ -3329,7 +4707,7 @@
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="3:4">
@@ -3337,7 +4715,7 @@
         <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="3:4">
@@ -3345,7 +4723,7 @@
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="3:4">
@@ -3353,7 +4731,7 @@
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="3:4">
@@ -3361,7 +4739,7 @@
         <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="3:4">
@@ -3369,7 +4747,7 @@
         <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="3:4">
@@ -3377,7 +4755,7 @@
         <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="3:4">
@@ -3385,7 +4763,7 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="3:4">
@@ -3393,7 +4771,7 @@
         <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="3:4">
@@ -3401,7 +4779,7 @@
         <v>35</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="3:4">
@@ -3409,7 +4787,7 @@
         <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="3:4">
@@ -3417,7 +4795,7 @@
         <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="3:4">
@@ -3425,7 +4803,7 @@
         <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/не data/Назначение пинов v2.xlsx
+++ b/не data/Назначение пинов v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
@@ -2701,7 +2701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B40" sqref="B40:B41"/>
     </sheetView>
   </sheetViews>
@@ -3467,7 +3467,7 @@
     <hyperlink ref="G15" r:id="rId19"/>
     <hyperlink ref="G16" r:id="rId20"/>
     <hyperlink ref="G13" r:id="rId21"/>
-    <hyperlink ref="G4"/>
+    <hyperlink ref="G4" display="https://aliexpress.ru/item/1005002568593455.html?spm=a2g2w.detail.pers_rcmd.5.2f16712bOnw0j7&amp;mixer_rcmd_bucket_id=aerabtestalgoRecommendAbV2_controlRu1&amp;pdp_trigger_item_id=0_1005006076665043&amp;ru_algo_pv_id=e7c717-476f2e-bd2a91-501c2f-1722967200&amp;scenario=pc"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId22"/>
@@ -3479,8 +3479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A7:U35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3940,8 +3940,8 @@
       <c r="U26" s="4"/>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" s="27">
-        <v>2</v>
+      <c r="A27" s="29">
+        <v>3</v>
       </c>
       <c r="B27" s="27" t="s">
         <v>192</v>
@@ -3962,8 +3962,8 @@
       <c r="H27" s="39"/>
     </row>
     <row r="28" spans="1:21">
-      <c r="A28" s="29">
-        <v>3</v>
+      <c r="A28" s="27">
+        <v>2</v>
       </c>
       <c r="B28" s="27" t="s">
         <v>192</v>

--- a/не data/Назначение пинов v2.xlsx
+++ b/не data/Назначение пинов v2.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
     <sheet name="Пины" sheetId="1" r:id="rId2"/>
     <sheet name="LOLIN S2 Mini Info" sheetId="3" r:id="rId3"/>
-    <sheet name="Лист1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="243">
   <si>
     <t>GPIO</t>
   </si>
@@ -85,9 +84,6 @@
     <t>Соленоидный клапан трёхходовой 24В</t>
   </si>
   <si>
-    <t>Силиконовая трубка высокого давления пищевая 5 -10 мм</t>
-  </si>
-  <si>
     <t>https://aliexpress.ru/item/4000331057801.html?spm=a2g2w.orderdetail.0.0.8cf54aa6zKT9sj&amp;sku_id=10000001357572616</t>
   </si>
   <si>
@@ -547,24 +543,6 @@
     <t>Режим прошивки</t>
   </si>
   <si>
-    <t>Strap</t>
-  </si>
-  <si>
-    <t>ADC</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>CS Master</t>
-  </si>
-  <si>
-    <t>SDI (MOSI)</t>
-  </si>
-  <si>
-    <t>SDO, SO (MISO)</t>
-  </si>
-  <si>
     <t>VCC</t>
   </si>
   <si>
@@ -764,6 +742,9 @@
   </si>
   <si>
     <t>CS термопары бойлера MAX6675</t>
+  </si>
+  <si>
+    <t>Силиконовая трубка высокого давления пищевая 5/10 мм</t>
   </si>
 </sst>
 </file>
@@ -2701,8 +2682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40:B41"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2722,7 +2703,7 @@
       </c>
       <c r="C2" s="45"/>
       <c r="E2" s="52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="52">
         <f>SUM(F4:F45)</f>
@@ -2755,7 +2736,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C4" s="48"/>
       <c r="D4" s="51">
@@ -2769,7 +2750,7 @@
         <v>448</v>
       </c>
       <c r="G4" s="49" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="47" customFormat="1" ht="87" customHeight="1">
@@ -2777,7 +2758,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D5" s="51">
         <v>1</v>
@@ -2790,7 +2771,7 @@
         <v>39</v>
       </c>
       <c r="G5" s="50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="47" customFormat="1" ht="104.25" customHeight="1">
@@ -2811,7 +2792,7 @@
         <v>350</v>
       </c>
       <c r="G6" s="50" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="47" customFormat="1" ht="98.25" customHeight="1">
@@ -2819,7 +2800,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D7" s="51">
         <v>1</v>
@@ -2832,7 +2813,7 @@
         <v>157</v>
       </c>
       <c r="G7" s="50" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="47" customFormat="1" ht="105" customHeight="1">
@@ -2840,7 +2821,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D8" s="51">
         <v>1</v>
@@ -2853,7 +2834,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="47" customFormat="1" ht="69" customHeight="1">
@@ -2874,7 +2855,7 @@
         <v>51</v>
       </c>
       <c r="G9" s="50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="47" customFormat="1" ht="154.5" customHeight="1">
@@ -2895,7 +2876,7 @@
         <v>290</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="47" customFormat="1" ht="102.75" customHeight="1">
@@ -2916,7 +2897,7 @@
         <v>257</v>
       </c>
       <c r="G11" s="50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="47" customFormat="1" ht="60" customHeight="1">
@@ -2924,7 +2905,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D12" s="51">
         <v>1</v>
@@ -2937,7 +2918,7 @@
         <v>38</v>
       </c>
       <c r="G12" s="49" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="47" customFormat="1" ht="93.75" customHeight="1">
@@ -2945,7 +2926,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="51">
         <v>1</v>
@@ -2958,7 +2939,7 @@
         <v>46</v>
       </c>
       <c r="G13" s="50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="47" customFormat="1" ht="81" customHeight="1">
@@ -2966,7 +2947,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="51">
         <v>1</v>
@@ -2979,7 +2960,7 @@
         <v>40</v>
       </c>
       <c r="G14" s="50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="47" customFormat="1" ht="76.5" customHeight="1">
@@ -2987,7 +2968,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D15" s="51">
         <v>1</v>
@@ -3000,7 +2981,7 @@
         <v>63</v>
       </c>
       <c r="G15" s="50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="47" customFormat="1" ht="81" customHeight="1">
@@ -3008,7 +2989,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="51">
         <v>1</v>
@@ -3021,7 +3002,7 @@
         <v>61</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="47" customFormat="1" ht="87.75" customHeight="1">
@@ -3029,7 +3010,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>22</v>
+        <v>242</v>
       </c>
       <c r="D17" s="51">
         <v>1</v>
@@ -3042,7 +3023,7 @@
         <v>601</v>
       </c>
       <c r="G17" s="50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="47" customFormat="1" ht="108.75" customHeight="1">
@@ -3050,7 +3031,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D18" s="51">
         <v>1</v>
@@ -3063,7 +3044,7 @@
         <v>56</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="47" customFormat="1" ht="92.25" customHeight="1">
@@ -3071,7 +3052,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" s="51">
         <v>1</v>
@@ -3084,7 +3065,7 @@
         <v>260</v>
       </c>
       <c r="G19" s="50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="47" customFormat="1" ht="83.25" customHeight="1">
@@ -3092,7 +3073,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D20" s="51">
         <v>4</v>
@@ -3105,7 +3086,7 @@
         <v>164</v>
       </c>
       <c r="G20" s="50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="47" customFormat="1" ht="98.25" customHeight="1">
@@ -3113,7 +3094,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D21" s="51">
         <v>1</v>
@@ -3126,7 +3107,7 @@
         <v>121</v>
       </c>
       <c r="G21" s="50" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="47" customFormat="1" ht="72" customHeight="1">
@@ -3134,7 +3115,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="47" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D22" s="51">
         <v>1</v>
@@ -3147,7 +3128,7 @@
         <v>52</v>
       </c>
       <c r="G22" s="50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="47" customFormat="1" ht="81.75" customHeight="1">
@@ -3155,7 +3136,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D23" s="51">
         <v>3</v>
@@ -3168,7 +3149,7 @@
         <v>114</v>
       </c>
       <c r="G23" s="50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="47" customFormat="1" ht="77.25" customHeight="1">
@@ -3176,7 +3157,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D24" s="51">
         <v>1</v>
@@ -3189,7 +3170,7 @@
         <v>53</v>
       </c>
       <c r="G24" s="50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="47" customFormat="1" ht="93" customHeight="1">
@@ -3197,7 +3178,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25" s="51">
         <v>1</v>
@@ -3210,7 +3191,7 @@
         <v>109</v>
       </c>
       <c r="G25" s="50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="47" customFormat="1" ht="45.75" customHeight="1">
@@ -3218,7 +3199,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" s="51">
         <v>2</v>
@@ -3231,7 +3212,7 @@
         <v>162</v>
       </c>
       <c r="G26" s="50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="47" customFormat="1" ht="99" customHeight="1">
@@ -3239,7 +3220,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D27" s="51">
         <v>1</v>
@@ -3252,7 +3233,7 @@
         <v>140</v>
       </c>
       <c r="G27" s="50" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="47" customFormat="1" ht="94.5" customHeight="1">
@@ -3260,7 +3241,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D28" s="51">
         <v>1</v>
@@ -3273,7 +3254,7 @@
         <v>143</v>
       </c>
       <c r="G28" s="50" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="64.5" customHeight="1">
@@ -3281,7 +3262,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D29" s="14">
         <v>1</v>
@@ -3294,7 +3275,7 @@
         <v>99</v>
       </c>
       <c r="G29" s="50" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="47" customFormat="1" ht="68.25" customHeight="1">
@@ -3302,7 +3283,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D30" s="51">
         <v>1</v>
@@ -3315,7 +3296,7 @@
         <v>51</v>
       </c>
       <c r="G30" s="50" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="47" customFormat="1" ht="82.5" customHeight="1">
@@ -3323,7 +3304,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31" s="51">
         <v>1</v>
@@ -3336,7 +3317,7 @@
         <v>102</v>
       </c>
       <c r="G31" s="50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="47" customFormat="1" ht="62.25" customHeight="1">
@@ -3344,7 +3325,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D32" s="51">
         <v>1</v>
@@ -3357,7 +3338,7 @@
         <v>28</v>
       </c>
       <c r="G32" s="50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="47" customFormat="1" ht="67.5" customHeight="1">
@@ -3365,7 +3346,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D33" s="51">
         <v>1</v>
@@ -3378,7 +3359,7 @@
         <v>75</v>
       </c>
       <c r="G33" s="50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="47" customFormat="1" ht="88.5" customHeight="1">
@@ -3386,7 +3367,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D34" s="51">
         <v>1</v>
@@ -3399,7 +3380,7 @@
         <v>222</v>
       </c>
       <c r="G34" s="50" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="47" customFormat="1" ht="127.5" customHeight="1">
@@ -3407,7 +3388,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="47" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D35" s="51">
         <v>1</v>
@@ -3420,7 +3401,7 @@
         <v>176</v>
       </c>
       <c r="G35" s="50" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="47" customFormat="1" ht="70.5" customHeight="1">
@@ -3428,7 +3409,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D36" s="51">
         <v>1</v>
@@ -3441,7 +3422,7 @@
         <v>157</v>
       </c>
       <c r="G36" s="50" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -3479,7 +3460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A7:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
@@ -3501,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>10</v>
@@ -3513,13 +3494,13 @@
         <v>1</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>9</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="U7" s="16"/>
     </row>
@@ -3528,16 +3509,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F8" s="13">
         <v>1</v>
@@ -3553,16 +3534,16 @@
         <v>34</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="H9" s="39"/>
       <c r="U9" s="4"/>
@@ -3572,16 +3553,16 @@
         <v>33</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
@@ -3593,16 +3574,16 @@
         <v>18</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
@@ -3614,16 +3595,16 @@
         <v>35</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>3</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H12" s="39"/>
       <c r="U12" s="4"/>
@@ -3633,16 +3614,16 @@
         <v>36</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
@@ -3654,14 +3635,14 @@
         <v>37</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
@@ -3673,12 +3654,12 @@
         <v>15</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="23"/>
       <c r="E15" s="24" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
@@ -3690,10 +3671,10 @@
         <v>38</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="3" t="s">
@@ -3713,14 +3694,14 @@
         <v>8</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D17" s="33"/>
       <c r="E17" s="34" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F17" s="13">
         <v>1</v>
@@ -3736,14 +3717,14 @@
         <v>9</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D18" s="33"/>
       <c r="E18" s="34" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
@@ -3755,16 +3736,16 @@
         <v>21</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13">
@@ -3778,16 +3759,16 @@
         <v>6</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13">
@@ -3801,16 +3782,16 @@
         <v>10</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>3</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F21" s="13">
         <v>1</v>
@@ -3826,10 +3807,10 @@
         <v>11</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>3</v>
@@ -3850,16 +3831,16 @@
         <v>14</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F23" s="13">
         <v>1</v>
@@ -3875,10 +3856,10 @@
         <v>13</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D24" s="30"/>
       <c r="E24" s="31" t="s">
@@ -3898,10 +3879,10 @@
         <v>12</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D25" s="37" t="s">
         <v>3</v>
@@ -3919,16 +3900,16 @@
         <v>5</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C26" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>3</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F26" s="13">
         <v>1</v>
@@ -3944,14 +3925,14 @@
         <v>3</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D27" s="36"/>
       <c r="E27" s="28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F27" s="13">
         <v>1</v>
@@ -3966,14 +3947,14 @@
         <v>2</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D28" s="36"/>
       <c r="E28" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
@@ -3984,14 +3965,14 @@
         <v>4</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D29" s="36"/>
       <c r="E29" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
@@ -4002,13 +3983,13 @@
         <v>0</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C30" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="13">
@@ -4021,7 +4002,7 @@
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F31" s="13">
         <f>SUM(F8:F30)</f>
@@ -4035,7 +4016,7 @@
         <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="13">
@@ -4046,12 +4027,12 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -4079,15 +4060,15 @@
   <sheetData>
     <row r="1" spans="2:7">
       <c r="B1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="2:7" ht="15.75" thickBot="1">
       <c r="G2" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="18" thickBot="1">
@@ -4095,387 +4076,387 @@
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="35.25" thickBot="1">
       <c r="B4" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="G4" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="18" thickBot="1">
       <c r="B5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="E5" s="6"/>
       <c r="G5" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="18" thickBot="1">
       <c r="B6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="E6" s="6"/>
       <c r="G6" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="18" thickBot="1">
       <c r="B7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="E7" s="6"/>
       <c r="G7" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="18" thickBot="1">
       <c r="B8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="E8" s="6"/>
       <c r="G8" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="35.25" thickBot="1">
       <c r="B9" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="E9" s="6"/>
       <c r="G9" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="18" thickBot="1">
       <c r="B10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="E10" s="6"/>
       <c r="G10" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="18" thickBot="1">
       <c r="B11" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="E11" s="6"/>
       <c r="G11" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="18" thickBot="1">
       <c r="B12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>84</v>
       </c>
       <c r="E12" s="6"/>
       <c r="G12" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="35.25" thickBot="1">
       <c r="B13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>87</v>
       </c>
       <c r="E13" s="6"/>
       <c r="G13" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="18" thickBot="1">
       <c r="B14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="2:7" ht="18" thickBot="1">
       <c r="B15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="2:7" ht="18" thickBot="1">
       <c r="B16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>96</v>
       </c>
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="2:5" ht="18" thickBot="1">
       <c r="B17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="2:5" ht="18" thickBot="1">
       <c r="B18" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="2:5" ht="18" thickBot="1">
       <c r="B19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>105</v>
       </c>
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="2:5" ht="18" thickBot="1">
       <c r="B20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>108</v>
       </c>
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="2:5" ht="18" thickBot="1">
       <c r="B21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="E21" s="6"/>
     </row>
     <row r="22" spans="2:5" ht="18" thickBot="1">
       <c r="B22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="2:5" ht="18" thickBot="1">
       <c r="B23" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="E23" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="18" thickBot="1">
       <c r="B24" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="18" thickBot="1">
       <c r="B25" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="2:5" ht="18" thickBot="1">
       <c r="B26" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="18" thickBot="1">
       <c r="B27" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1">
       <c r="B28" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="18" thickBot="1">
       <c r="B29" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="18" thickBot="1">
       <c r="B30" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="18" thickBot="1">
       <c r="B31" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="18" thickBot="1">
       <c r="B32" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="18" thickBot="1">
       <c r="B33" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -4483,7 +4464,7 @@
     </row>
     <row r="34" spans="2:5" ht="18" thickBot="1">
       <c r="B34" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -4491,7 +4472,7 @@
     </row>
     <row r="35" spans="2:5" ht="18" thickBot="1">
       <c r="B35" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -4499,7 +4480,7 @@
     </row>
     <row r="36" spans="2:5" ht="18" thickBot="1">
       <c r="B36" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -4507,7 +4488,7 @@
     </row>
     <row r="37" spans="2:5" ht="18" thickBot="1">
       <c r="B37" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -4515,7 +4496,7 @@
     </row>
     <row r="38" spans="2:5" ht="18" thickBot="1">
       <c r="B38" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -4523,47 +4504,47 @@
     </row>
     <row r="39" spans="2:5" ht="18" thickBot="1">
       <c r="B39" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="18" thickBot="1">
       <c r="B40" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="18" thickBot="1">
       <c r="B41" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="18" thickBot="1">
       <c r="B42" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="18" thickBot="1">
       <c r="B43" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -4571,7 +4552,7 @@
     </row>
     <row r="44" spans="2:5" ht="18" thickBot="1">
       <c r="B44" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -4579,22 +4560,22 @@
     </row>
     <row r="45" spans="2:5" ht="18" thickBot="1">
       <c r="B45" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="18" thickBot="1">
       <c r="B46" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4607,209 +4588,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId4"/>
   <drawing r:id="rId5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C8:D30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="8" spans="3:4">
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="9" spans="3:4">
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4">
-      <c r="C10" s="3">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4">
-      <c r="C11" s="3">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4">
-      <c r="C12" s="3">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="13" spans="3:4">
-      <c r="C13" s="3">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="3:4">
-      <c r="C14" s="3">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="15" spans="3:4">
-      <c r="C15" s="3">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="16" spans="3:4">
-      <c r="C16" s="3">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4">
-      <c r="C17" s="3">
-        <v>12</v>
-      </c>
-      <c r="D17" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4">
-      <c r="C18" s="3">
-        <v>13</v>
-      </c>
-      <c r="D18" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4">
-      <c r="C19" s="3">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="3">
-        <v>15</v>
-      </c>
-      <c r="D20" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="3">
-        <v>16</v>
-      </c>
-      <c r="D21" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="3">
-        <v>17</v>
-      </c>
-      <c r="D22" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="3">
-        <v>18</v>
-      </c>
-      <c r="D23" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4">
-      <c r="C24" s="3">
-        <v>21</v>
-      </c>
-      <c r="D24" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4">
-      <c r="C25" s="3">
-        <v>33</v>
-      </c>
-      <c r="D25" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4">
-      <c r="C26" s="3">
-        <v>34</v>
-      </c>
-      <c r="D26" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4">
-      <c r="C27" s="3">
-        <v>35</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4">
-      <c r="C28">
-        <v>36</v>
-      </c>
-      <c r="D28" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4">
-      <c r="C29">
-        <v>37</v>
-      </c>
-      <c r="D29" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4">
-      <c r="C30" s="3">
-        <v>38</v>
-      </c>
-      <c r="D30" t="s">
-        <v>178</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="C8:C30">
-    <sortCondition ref="C6"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/не data/Назначение пинов v2.xlsx
+++ b/не data/Назначение пинов v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="243">
   <si>
     <t>GPIO</t>
   </si>
@@ -2682,7 +2682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -3460,8 +3460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A7:U35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3656,7 +3656,9 @@
       <c r="B15" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="C15" s="24"/>
+      <c r="C15" s="24" t="s">
+        <v>178</v>
+      </c>
       <c r="D15" s="23"/>
       <c r="E15" s="24" t="s">
         <v>210</v>
